--- a/bh3/498182323343974712_2021-03-04_12-01-51.xlsx
+++ b/bh3/498182323343974712_2021-03-04_12-01-51.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4255702279</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:32:34</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44267.81428240741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -623,10 +637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-05 14:02:06</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44260.58479166667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -698,10 +710,8 @@
           <t>4221417687</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-05 11:31:14</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44260.48002314815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -777,10 +787,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:34:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44259.98224537037</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -852,10 +860,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:28:54</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44259.97840277778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -919,10 +925,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:21:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44259.9731712963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -990,10 +994,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:14:35</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44259.96846064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:12:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44259.96724537037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1128,10 +1128,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:11:57</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44259.96663194444</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1199,10 +1197,8 @@
           <t>4217244268</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:11:08</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44259.96606481481</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1278,10 +1274,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:08:28</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44259.96421296296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1345,10 +1339,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-04 23:07:52</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44259.9637962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1415,10 +1407,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:59:24</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44259.95791666667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1486,10 +1476,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:52:11</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44259.95290509259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1553,10 +1541,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:49:52</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44259.9512962963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1620,10 +1606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:49:00</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44259.95069444444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1691,10 +1675,8 @@
           <t>4219780266</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:39:28</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44259.94407407408</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1766,10 +1748,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:38:23</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44259.94332175926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1837,10 +1817,8 @@
           <t>4219766974</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:37:41</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44259.94283564815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1912,10 +1890,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:32:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44259.93912037037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1983,10 +1959,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:16:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44259.92833333334</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -2058,10 +2032,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:14:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44259.92670138889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2125,10 +2097,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:10:00</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44259.92361111111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2200,10 +2170,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:08:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44259.92280092592</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2279,10 +2247,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:05:47</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44259.92068287037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2358,10 +2324,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-04 22:02:33</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44259.9184375</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2429,10 +2393,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:51:00</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44259.91041666667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2508,10 +2470,8 @@
           <t>4217949581</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:32:39</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44259.89767361111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2579,10 +2539,8 @@
           <t>4217227103</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:25:55</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44259.89299768519</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2650,10 +2608,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:14:23</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44259.88498842593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2721,10 +2677,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-04 21:10:47</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44259.88248842592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2792,10 +2746,8 @@
           <t>4218923127</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:57:15</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44259.87309027778</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2859,10 +2811,8 @@
           <t>4219223937</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:50:56</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44259.8687037037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2934,10 +2884,8 @@
           <t>4217189845</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:34:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44259.85734953704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3005,10 +2953,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:33:38</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44259.85668981481</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3072,10 +3018,8 @@
           <t>4217292179</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:25:27</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44259.85100694445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3143,10 +3087,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:23:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44259.849375</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3214,10 +3156,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:22:51</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44259.84920138889</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3289,10 +3229,8 @@
           <t>4219012752</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:06:05</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44259.83755787037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3369,10 +3307,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:04:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44259.83611111111</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3448,10 +3384,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-04 20:03:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44259.83561342592</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3527,10 +3461,8 @@
           <t>4218923127</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:47:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44259.8247337963</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3594,10 +3526,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:41:34</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44259.82053240741</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3665,10 +3595,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:39:09</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44259.81885416667</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3736,10 +3664,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:28:30</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44259.81145833333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3815,10 +3741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:15:01</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44259.80209490741</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3894,10 +3818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:14:03</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44259.80142361111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3969,10 +3891,8 @@
           <t>4217259549</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:12:20</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44259.80023148148</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4036,10 +3956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-04 19:11:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44259.7997800926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4107,10 +4025,8 @@
           <t>4218667188</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:52:56</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44259.78675925926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4182,10 +4098,8 @@
           <t>4218079984</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:50:42</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44259.78520833333</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4257,10 +4171,8 @@
           <t>4217158226</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:50:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44259.78518518519</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4328,10 +4240,8 @@
           <t>4217949581</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:37:23</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44259.77596064815</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4407,10 +4317,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:36:33</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44259.77538194445</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4482,10 +4390,8 @@
           <t>4218587388</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:36:17</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44259.77519675926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4549,10 +4455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:31:10</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44259.77164351852</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4616,10 +4520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:29:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44259.77082175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4687,10 +4589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:27:50</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44259.7693287037</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4766,10 +4666,8 @@
           <t>4217536207</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:26:29</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44259.7683912037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4841,10 +4739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:25:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44259.76744212963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4904,10 +4800,8 @@
           <t>4217528064</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:25:07</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44259.76744212963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4979,10 +4873,8 @@
           <t>4217244268</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:24:11</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44259.76679398148</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5054,10 +4946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:20:59</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44259.76457175926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5121,10 +5011,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:20:47</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44259.76443287037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5188,10 +5076,8 @@
           <t>4218503337</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:18:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44259.76307870371</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5263,10 +5149,8 @@
           <t>4218079984</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:18:12</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44259.76263888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5330,10 +5214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:16:59</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44259.76179398148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5409,10 +5291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:13:37</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44259.75945601852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5484,10 +5364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-04 18:03:06</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44259.75215277778</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5555,10 +5433,8 @@
           <t>4218012788</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:58:35</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44259.74901620371</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5626,10 +5502,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:58:12</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44259.74875</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5697,10 +5571,8 @@
           <t>4218045372</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:54:40</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44259.7462962963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5772,10 +5644,8 @@
           <t>4218386519</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:51:30</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44259.74409722222</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5851,10 +5721,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:40:19</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44259.73633101852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5930,10 +5798,8 @@
           <t>4218335381</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:39:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44259.73549768519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6009,10 +5875,8 @@
           <t>4217536207</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:38:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44259.73482638889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6088,10 +5952,8 @@
           <t>4217501916</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:35:07</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44259.73271990741</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6167,10 +6029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:23:27</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44259.72461805555</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6242,10 +6102,8 @@
           <t>4217349160</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:22:15</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44259.72378472222</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6321,10 +6179,8 @@
           <t>4218266752</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:20:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44259.7228125</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6384,10 +6240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:20:41</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44259.72269675926</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6463,10 +6317,8 @@
           <t>4217349160</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:19:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44259.72171296296</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6542,10 +6394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:16:01</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44259.71945601852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6617,10 +6467,8 @@
           <t>4217902257</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:12:22</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44259.7169212963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6696,10 +6544,8 @@
           <t>4218079984</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:11:22</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44259.71622685185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6763,10 +6609,8 @@
           <t>4218223288</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:10:00</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44259.71527777778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6842,10 +6686,8 @@
           <t>4217630281</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:09:33</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44259.71496527778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6917,10 +6759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:08:03</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44259.71392361111</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6984,10 +6824,8 @@
           <t>4218197489</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-04 17:02:12</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44259.70986111111</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7055,10 +6893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:52:16</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44259.70296296296</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7130,10 +6966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:52:02</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44259.70280092592</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7197,10 +7031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:49:01</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44259.70070601852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7272,10 +7104,8 @@
           <t>4217277613</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:47:30</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44259.69965277778</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7347,10 +7177,8 @@
           <t>4218130185</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:41:48</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44259.69569444445</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7426,10 +7254,8 @@
           <t>4218119540</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:41:15</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44259.6953125</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7505,10 +7331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:38:15</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44259.69322916667</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7584,10 +7408,8 @@
           <t>4218097210</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:34:37</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44259.69070601852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7651,10 +7473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:31:40</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44259.68865740741</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7726,10 +7546,8 @@
           <t>4218079984</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:29:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44259.68688657408</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7797,10 +7615,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:26:40</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44259.68518518518</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7879,10 +7695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:26:02</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44259.68474537037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7954,10 +7768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:17:30</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44259.67881944445</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8029,10 +7841,8 @@
           <t>4218046958</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:17:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44259.67871527778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8096,10 +7906,8 @@
           <t>4218045372</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:15:56</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44259.67773148148</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8171,10 +7979,8 @@
           <t>4217480686</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:15:09</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44259.6771875</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8242,10 +8048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:13:09</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44259.67579861111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8324,10 +8128,8 @@
           <t>4218012788</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:08:09</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44259.67232638889</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8391,10 +8193,8 @@
           <t>4218001027</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:02:54</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44259.66868055556</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8470,10 +8270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:01:35</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44259.6677662037</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8549,10 +8347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-04 16:00:52</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44259.66726851852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8616,10 +8412,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:54:38</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44259.66293981481</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8687,10 +8481,8 @@
           <t>4217949581</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:53:37</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44259.6622337963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8766,10 +8558,8 @@
           <t>4217949581</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:50:54</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44259.66034722222</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8833,10 +8623,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:43:38</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44259.65530092592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8908,10 +8696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:42:48</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44259.65472222222</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8989,10 +8775,8 @@
           <t>4217349160</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:40:14</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44259.65293981481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9068,10 +8852,8 @@
           <t>4217927291</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:39:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44259.6524074074</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9147,10 +8929,8 @@
           <t>4217321727</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:38:37</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44259.65181712963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9222,10 +9002,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:38:23</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44259.6516550926</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9301,10 +9079,8 @@
           <t>4217925907</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:38:05</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44259.65144675926</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9380,10 +9156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:37:46</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44259.65122685185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9459,10 +9233,8 @@
           <t>4217915442</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:36:53</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44259.65061342593</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -9538,10 +9310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:33:43</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44259.64841435185</v>
       </c>
       <c r="I124" t="n">
         <v>57</v>
@@ -9617,10 +9387,8 @@
           <t>4217902257</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:33:43</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44259.64841435185</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9684,10 +9452,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:28:55</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44259.64508101852</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9759,10 +9525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:25:29</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44259.64269675926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9830,10 +9594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:21:16</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44259.63976851852</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9901,10 +9663,8 @@
           <t>4217868704</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:20:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44259.63945601852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9972,10 +9732,8 @@
           <t>4217419330</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:14:18</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44259.63493055556</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10039,10 +9797,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:10:27</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44259.63225694445</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10106,10 +9862,8 @@
           <t>4217804451</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:06:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44259.6296875</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10181,10 +9935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:01:23</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44259.62596064815</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10256,10 +10008,8 @@
           <t>4217804451</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-04 15:01:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44259.62575231482</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10333,10 +10083,8 @@
           <t>4217798056</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:58:57</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44259.62427083333</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10408,10 +10156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:56:32</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44259.62259259259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10479,10 +10225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:55:52</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44259.62212962963</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10546,10 +10290,8 @@
           <t>4217189845</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:51:20</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44259.61898148148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10625,10 +10367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:47:31</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44259.61633101852</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10700,10 +10440,8 @@
           <t>4217764288</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:46:03</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44259.6153125</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -10779,10 +10517,8 @@
           <t>4217501916</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:41:22</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44259.61206018519</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10846,10 +10582,8 @@
           <t>4217321727</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:40:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44259.61140046296</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10916,10 +10650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:39:15</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44259.61059027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10995,10 +10727,8 @@
           <t>4217728560</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:34:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44259.60704861111</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11066,10 +10796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:33:37</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44259.60667824074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11133,10 +10861,8 @@
           <t>4217726740</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:32:11</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44259.60568287037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11200,10 +10926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:27:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44259.60273148148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11267,10 +10991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:25:51</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44259.60128472222</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11342,10 +11064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:25:28</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44259.60101851852</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11413,10 +11133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:22:34</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44259.59900462963</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11488,10 +11206,8 @@
           <t>4217689682</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:21:31</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44259.59827546297</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11561,10 +11277,8 @@
           <t>4217689279</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:21:07</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44259.59799768519</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11636,10 +11350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:20:30</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44259.59756944444</v>
       </c>
       <c r="I153" t="n">
         <v>4</v>
@@ -11715,10 +11427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:17:23</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44259.59540509259</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11794,10 +11504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:17:11</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44259.5952662037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11876,10 +11584,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:15:17</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44259.59394675926</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11939,10 +11645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:14:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44259.59368055555</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12018,10 +11722,8 @@
           <t>4217669236</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:14:37</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44259.5934837963</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12089,10 +11791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:10:43</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44259.59077546297</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12160,10 +11860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:08:55</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44259.58952546296</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12235,10 +11933,8 @@
           <t>4217320272</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:08:35</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44259.58929398148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12314,10 +12010,8 @@
           <t>4217653034</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:08:33</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44259.58927083333</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12389,10 +12083,8 @@
           <t>4217320272</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:08:11</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44259.5890162037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12468,10 +12160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:08:02</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44259.58891203703</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12535,10 +12225,8 @@
           <t>4217320272</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:06:48</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44259.58805555556</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12602,10 +12290,8 @@
           <t>4217522470</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:06:33</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44259.58788194445</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12669,10 +12355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:06:07</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44259.58758101852</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12740,10 +12424,8 @@
           <t>4217292179</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:05:49</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44259.58737268519</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12807,10 +12489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:05:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44259.58733796296</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12882,10 +12562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:05:26</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44259.58710648148</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12957,10 +12635,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:05:00</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44259.58680555555</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13028,10 +12704,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:03:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44259.58605324074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13099,10 +12773,8 @@
           <t>4217637836</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:03:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44259.58582175926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13162,10 +12834,8 @@
           <t>4217636769</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:02:33</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44259.58510416667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13237,10 +12907,8 @@
           <t>4217629086</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:01:34</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44259.5844212963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13308,10 +12976,8 @@
           <t>4217630281</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-04 14:01:07</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44259.5841087963</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13371,10 +13037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:56:30</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44259.58090277778</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13442,10 +13106,8 @@
           <t>4217227103</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:55:47</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44259.58040509259</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13517,10 +13179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:55:27</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44259.58017361111</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13592,10 +13252,8 @@
           <t>4217603097</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:54:25</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44259.57945601852</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13667,10 +13325,8 @@
           <t>4217602375</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:53:47</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44259.5790162037</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13738,10 +13394,8 @@
           <t>4217462354</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:51:39</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44259.57753472222</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13813,10 +13467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:51:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44259.57752314815</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13892,10 +13544,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:51:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44259.57726851852</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13967,10 +13617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:51:07</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44259.57716435185</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -14034,10 +13682,8 @@
           <t>4217591440</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:50:05</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44259.57644675926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14101,10 +13747,8 @@
           <t>4217591440</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:48:27</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44259.5753125</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14176,10 +13820,8 @@
           <t>4217579905</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:47:04</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44259.57435185185</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14247,10 +13889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:46:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44259.5737037037</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14318,10 +13958,8 @@
           <t>4217571874</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:44:17</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44259.57241898148</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14385,10 +14023,8 @@
           <t>4217571675</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:44:06</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44259.57229166666</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14456,10 +14092,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:43:46</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44259.57206018519</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14523,10 +14157,8 @@
           <t>4217522470</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:43:33</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44259.57190972222</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14598,10 +14230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:43:16</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44259.57171296296</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14673,10 +14303,8 @@
           <t>4217568139</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:42:43</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44259.57133101852</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14752,10 +14380,8 @@
           <t>4217158226</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:42:18</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44259.57104166667</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14819,10 +14445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:42:11</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44259.57096064815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14894,10 +14518,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:41:39</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44259.57059027778</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14961,10 +14583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:40:21</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44259.5696875</v>
       </c>
       <c r="I199" t="n">
         <v>106</v>
@@ -15028,10 +14648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:40:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44259.56953703704</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15103,10 +14721,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:38:52</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44259.56865740741</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15170,10 +14786,8 @@
           <t>4217179693</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:38:00</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44259.56805555556</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15249,10 +14863,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:37:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44259.56787037037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15316,10 +14928,8 @@
           <t>4217158226</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:37:23</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44259.56762731481</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15391,10 +15001,8 @@
           <t>4217522470</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:36:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44259.56688657407</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15470,10 +15078,8 @@
           <t>4217541824</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:35:35</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44259.56637731481</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15545,10 +15151,8 @@
           <t>4217541203</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:35:05</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44259.5660300926</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15616,10 +15220,8 @@
           <t>4217227103</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:35:02</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44259.56599537037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15687,10 +15289,8 @@
           <t>4217522470</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:34:40</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44259.56574074074</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15762,10 +15362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:34:22</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44259.56553240741</v>
       </c>
       <c r="I210" t="n">
         <v>8</v>
@@ -15829,10 +15427,8 @@
           <t>4217545246</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:34:22</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44259.56553240741</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15904,10 +15500,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:33:28</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44259.56490740741</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15971,10 +15565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:32:32</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44259.56425925926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16038,10 +15630,8 @@
           <t>4217528064</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:32:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44259.56417824074</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16113,10 +15703,8 @@
           <t>4217536207</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:32:24</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44259.56416666666</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16180,10 +15768,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:31:07</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44259.56327546296</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16243,10 +15829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:30:49</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44259.56306712963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16318,10 +15902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:30:43</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44259.56299768519</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16386,10 +15968,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:30:35</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44259.56290509259</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16465,10 +16045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:30:18</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44259.56270833333</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16544,10 +16122,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:30:12</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44259.56263888889</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16615,10 +16191,8 @@
           <t>4217480686</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:29:39</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44259.56225694445</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16678,10 +16252,8 @@
           <t>4217522470</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:29:22</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44259.56206018518</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16745,10 +16317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:28:45</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44259.56163194445</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16824,10 +16394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:28:24</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44259.56138888889</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16895,10 +16463,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:28:09</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44259.56121527778</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16958,10 +16524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:26:33</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44259.56010416667</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17025,10 +16589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:26:20</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44259.55995370371</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17096,10 +16658,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:26:15</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44259.55989583334</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17163,10 +16723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:26:11</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44259.55984953704</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17242,10 +16800,8 @@
           <t>4217486154</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:26:04</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44259.55976851852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17317,10 +16873,8 @@
           <t>4217507505</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:25:13</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44259.55917824074</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17388,10 +16942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:24:21</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44259.55857638889</v>
       </c>
       <c r="I233" t="n">
         <v>6</v>
@@ -17459,10 +17011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:24:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44259.55851851852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17530,10 +17080,8 @@
           <t>4217277519</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:23:44</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44259.55814814815</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17601,10 +17149,8 @@
           <t>4217501916</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:23:33</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44259.55802083333</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17680,10 +17226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:22:42</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44259.55743055556</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17747,10 +17291,8 @@
           <t>4217321727</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:22:22</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44259.55719907407</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17822,10 +17364,8 @@
           <t>4217493876</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:22:15</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44259.55711805556</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17889,10 +17429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:21:45</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44259.55677083333</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17960,10 +17498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:20:52</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44259.55615740741</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18039,10 +17575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:20:30</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44259.55590277778</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18118,10 +17652,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:20:25</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44259.55584490741</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18197,10 +17729,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:19:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44259.55510416667</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18264,10 +17794,8 @@
           <t>4217486154</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:19:02</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44259.55488425926</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18335,10 +17863,8 @@
           <t>4217480686</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:18:36</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44259.55458333333</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18406,10 +17932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:17:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44259.55412037037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18481,10 +18005,8 @@
           <t>4217469258</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:17:29</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44259.55380787037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18552,10 +18074,8 @@
           <t>4217468709</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:17:04</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44259.55351851852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18627,10 +18147,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:16:47</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44259.55332175926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18694,10 +18212,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:16:40</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44259.55324074074</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18761,10 +18277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:16:30</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44259.553125</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18840,10 +18354,8 @@
           <t>4217417971</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:15:47</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44259.55262731481</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18919,10 +18431,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:15:38</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44259.55252314815</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18982,10 +18492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:14:56</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44259.55203703704</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19049,10 +18557,8 @@
           <t>4217277613</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:13:57</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44259.55135416667</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19120,10 +18626,8 @@
           <t>4217435524</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:13:21</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44259.5509375</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19183,10 +18687,8 @@
           <t>4217462396</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:13:21</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44259.5509375</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19262,10 +18764,8 @@
           <t>4217462354</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:13:19</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44259.55091435185</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19341,10 +18841,8 @@
           <t>4217452398</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:12:17</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44259.55019675926</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19420,10 +18918,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:11:24</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44259.54958333333</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19483,10 +18979,8 @@
           <t>4217455615</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:11:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44259.54947916666</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19562,10 +19056,8 @@
           <t>4217435524</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:10:23</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44259.54887731482</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19637,10 +19129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:10:14</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44259.54877314815</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19716,10 +19206,8 @@
           <t>4217444224</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:10:14</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44259.54877314815</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19795,10 +19283,8 @@
           <t>4217438811</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:09:39</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44259.54836805556</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19874,10 +19360,8 @@
           <t>4217435524</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:08:38</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44259.54766203704</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19949,10 +19433,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:08:38</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44259.54766203704</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20028,10 +19510,8 @@
           <t>4217297845</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:08:34</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44259.54761574074</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20107,10 +19587,8 @@
           <t>4217206763</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:08:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44259.5475</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20174,10 +19652,8 @@
           <t>4217445005</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:07:53</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44259.5471412037</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20237,10 +19713,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:07:44</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44259.54703703704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20309,10 +19783,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:07:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44259.546875</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20381,10 +19853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:07:27</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44259.54684027778</v>
       </c>
       <c r="I274" t="n">
         <v>7</v>
@@ -20460,10 +19930,8 @@
           <t>4217435524</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:07:17</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44259.54672453704</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20523,10 +19991,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:56</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44259.54648148148</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20586,10 +20052,8 @@
           <t>4217417971</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:56</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44259.54648148148</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20665,10 +20129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:35</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44259.54623842592</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20740,10 +20202,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:35</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44259.54623842592</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20812,10 +20272,8 @@
           <t>4217433152</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:30</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44259.54618055555</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20891,10 +20349,8 @@
           <t>4217321727</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:06:13</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44259.5459837963</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20962,10 +20418,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:05:35</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44259.54554398148</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21034,10 +20488,8 @@
           <t>4217297845</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:04:56</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44259.54509259259</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21105,10 +20557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:04:32</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44259.54481481481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21172,10 +20622,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:04:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44259.54480324074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21239,10 +20687,8 @@
           <t>4217419330</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:03:41</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44259.54422453704</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21306,10 +20752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:03:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44259.54393518518</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21385,10 +20829,8 @@
           <t>4217417971</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:02:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44259.54356481481</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -21464,10 +20906,8 @@
           <t>4217413663</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:02:36</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44259.54347222222</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21548,10 +20988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:02:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44259.54326388889</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21627,10 +21065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:01:43</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44259.5428587963</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21702,10 +21138,8 @@
           <t>4217415598</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:01:03</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44259.54239583333</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21781,10 +21215,8 @@
           <t>4217272839</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:00:36</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44259.54208333333</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21860,10 +21292,8 @@
           <t>4217320272</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-04 13:00:26</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44259.5419675926</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21939,10 +21369,8 @@
           <t>4217189845</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:59:17</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44259.54116898148</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22010,10 +21438,8 @@
           <t>4217402755</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:59:03</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44259.54100694445</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22090,10 +21516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:58:11</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44259.54040509259</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22161,10 +21585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:58:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44259.54034722222</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22232,10 +21654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:57:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44259.54005787037</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22311,10 +21731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:57:40</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44259.54004629629</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22374,10 +21792,8 @@
           <t>4217391381</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:57:21</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44259.53982638889</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22445,10 +21861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:57:02</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44259.53960648148</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22512,10 +21926,8 @@
           <t>4217384865</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:56:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44259.53936342592</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22579,10 +21991,8 @@
           <t>4217390320</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:56:40</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44259.53935185185</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22642,10 +22052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:56:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44259.53929398148</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22713,10 +22121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:55:55</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44259.53883101852</v>
       </c>
       <c r="I306" t="n">
         <v>108</v>
@@ -22776,10 +22182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:55:34</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44259.53858796296</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22855,10 +22259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:55:19</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44259.53841435185</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22926,10 +22328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:54:41</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44259.53797453704</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23001,10 +22401,8 @@
           <t>4217386102</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:54:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44259.53778935185</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23068,10 +22466,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:53:00</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44259.53680555556</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23143,10 +22539,8 @@
           <t>4217364697</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:57</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44259.53677083334</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23210,10 +22604,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:53</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44259.53672453704</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23273,10 +22665,8 @@
           <t>4217373614</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:47</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44259.53665509259</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23352,10 +22742,8 @@
           <t>4217277519</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:37</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44259.53653935185</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23415,10 +22803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:31</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44259.53646990741</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23494,10 +22880,8 @@
           <t>4217158226</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:15</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44259.53628472222</v>
       </c>
       <c r="I317" t="n">
         <v>5</v>
@@ -23569,10 +22953,8 @@
           <t>4217354372</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:52:08</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44259.5362037037</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23648,10 +23030,8 @@
           <t>4217367285</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:41</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44259.5358912037</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23723,10 +23103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:33</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44259.53579861111</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23794,10 +23172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:28</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44259.53574074074</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23873,10 +23249,8 @@
           <t>4217366824</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:23</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44259.53568287037</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23948,10 +23322,8 @@
           <t>4217361956</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:09</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44259.53552083333</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24023,10 +23395,8 @@
           <t>4217361850</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:51:05</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44259.53547453704</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24103,10 +23473,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:50:25</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44259.53501157407</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24170,10 +23538,8 @@
           <t>4217360311</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:50:05</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44259.5347800926</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -24250,10 +23616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:57</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44259.5346875</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24321,10 +23685,8 @@
           <t>4217354372</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:55</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44259.53466435185</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24388,10 +23750,8 @@
           <t>4217353988</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:39</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44259.53447916666</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24456,10 +23816,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:27</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44259.53434027778</v>
       </c>
       <c r="I330" t="n">
         <v>4</v>
@@ -24535,10 +23893,8 @@
           <t>4217349160</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:19</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44259.53424768519</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24614,10 +23970,8 @@
           <t>4217358295</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:49:09</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44259.53413194444</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24685,10 +24039,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:48:59</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44259.5340162037</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24752,10 +24104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:48:13</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44259.53348379629</v>
       </c>
       <c r="I334" t="n">
         <v>14</v>
@@ -24823,10 +24173,8 @@
           <t>4217356543</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:48:02</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44259.53335648148</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24898,10 +24246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:58</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44259.53331018519</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24969,10 +24315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:42</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44259.533125</v>
       </c>
       <c r="I337" t="n">
         <v>5</v>
@@ -25048,10 +24392,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:30</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44259.53298611111</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25120,10 +24462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44259.53290509259</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25183,10 +24523,8 @@
           <t>4217355354</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:16</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44259.53282407407</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25262,10 +24600,8 @@
           <t>4217332461</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:15</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44259.5328125</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25333,10 +24669,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:47:05</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44259.53269675926</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -25408,10 +24742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:46:59</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44259.53262731482</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25483,10 +24815,8 @@
           <t>4217345351</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:46:53</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44259.53255787037</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25554,10 +24884,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:46:31</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44259.53230324074</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25629,10 +24957,8 @@
           <t>4217259549</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:46:13</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44259.53209490741</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25696,10 +25022,8 @@
           <t>4217343593</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:46:08</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44259.53203703704</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25760,10 +25084,8 @@
           <t>4217332461</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:45:02</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44259.53127314815</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25839,10 +25161,8 @@
           <t>4217249493</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:43:23</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44259.53012731481</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25918,10 +25238,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:43:23</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44259.53012731481</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25993,10 +25311,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:53</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44259.52978009259</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26064,10 +25380,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:46</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44259.52969907408</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -26135,10 +25449,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:41</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44259.52964120371</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26206,10 +25518,8 @@
           <t>4217318708</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:40</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44259.52962962963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26277,10 +25587,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:38</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44259.52960648148</v>
       </c>
       <c r="I355" t="n">
         <v>6</v>
@@ -26352,10 +25660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:42:22</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44259.5294212963</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26431,10 +25737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:41:38</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44259.52891203704</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26506,10 +25810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:41:30</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44259.52881944444</v>
       </c>
       <c r="I358" t="n">
         <v>13</v>
@@ -26573,10 +25875,8 @@
           <t>4217321727</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:41:14</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44259.52863425926</v>
       </c>
       <c r="I359" t="n">
         <v>161</v>
@@ -26652,10 +25952,8 @@
           <t>4217249493</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:41:12</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44259.52861111111</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26715,10 +26013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:41:04</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44259.52851851852</v>
       </c>
       <c r="I361" t="n">
         <v>8</v>
@@ -26794,10 +26090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:40:19</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44259.52799768518</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26861,10 +26155,8 @@
           <t>4217320272</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:40:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44259.52799768518</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26924,10 +26216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:40:13</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44259.52792824074</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26999,10 +26289,8 @@
           <t>4217274857</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:40:05</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44259.52783564815</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27078,10 +26366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:40:00</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44259.52777777778</v>
       </c>
       <c r="I366" t="n">
         <v>20</v>
@@ -27145,10 +26431,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:55</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44259.5277199074</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27224,10 +26508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:44</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44259.5275925926</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27291,10 +26573,8 @@
           <t>4217274857</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:29</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44259.52741898148</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27366,10 +26646,8 @@
           <t>4217308749</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:21</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44259.52732638889</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27445,10 +26723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:17</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44259.5272800926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27516,10 +26792,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:10</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44259.52719907407</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27595,10 +26869,8 @@
           <t>4217228740</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:39:04</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44259.52712962963</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27674,10 +26946,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:38:11</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44259.5265162037</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -27749,10 +27019,8 @@
           <t>4217306040</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:37:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44259.52613425926</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27828,10 +27096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:37:26</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44259.52599537037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27907,10 +27173,8 @@
           <t>4217277613</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:37:17</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44259.5258912037</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -27986,10 +27250,8 @@
           <t>4217300682</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:37:13</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44259.52584490741</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -28061,10 +27323,8 @@
           <t>4217299470</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:37:04</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44259.52574074074</v>
       </c>
       <c r="I379" t="n">
         <v>8</v>
@@ -28128,10 +27388,8 @@
           <t>4217298810</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:36:39</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44259.52545138889</v>
       </c>
       <c r="I380" t="n">
         <v>9</v>
@@ -28191,10 +27449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:36:16</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44259.52518518519</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28258,10 +27514,8 @@
           <t>4217289174</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:36:13</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44259.52515046296</v>
       </c>
       <c r="I382" t="n">
         <v>25</v>
@@ -28337,10 +27591,8 @@
           <t>4217297845</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:36:02</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44259.52502314815</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28416,10 +27668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:35:46</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44259.52483796296</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28483,10 +27733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:35:30</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44259.52465277778</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28562,10 +27810,8 @@
           <t>4217292179</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:35:11</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44259.52443287037</v>
       </c>
       <c r="I386" t="n">
         <v>15</v>
@@ -28625,10 +27871,8 @@
           <t>4217287504</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:35:06</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44259.524375</v>
       </c>
       <c r="I387" t="n">
         <v>33</v>
@@ -28692,10 +27936,8 @@
           <t>4217286440</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:34:23</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44259.52387731482</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28759,10 +28001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:34:03</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44259.52364583333</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28834,10 +28074,8 @@
           <t>4217284309</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:33:48</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44259.52347222222</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28901,10 +28139,8 @@
           <t>4217284285</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:33:47</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44259.52346064815</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
@@ -28964,10 +28200,8 @@
           <t>4217274857</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:33:21</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44259.52315972222</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29035,10 +28269,8 @@
           <t>4217277519</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:33:17</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44259.52311342592</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29111,10 +28343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:33:15</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44259.52309027778</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29190,10 +28420,8 @@
           <t>4217277519</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:53</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44259.52283564815</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29253,10 +28481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:46</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44259.52275462963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29328,10 +28554,8 @@
           <t>4217277661</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:19</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44259.52244212963</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29399,10 +28623,8 @@
           <t>4217277613</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:17</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44259.52241898148</v>
       </c>
       <c r="I398" t="n">
         <v>64</v>
@@ -29474,10 +28696,8 @@
           <t>4217277519</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:14</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44259.52238425926</v>
       </c>
       <c r="I399" t="n">
         <v>4</v>
@@ -29545,10 +28765,8 @@
           <t>4217272839</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:32:01</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44259.5222337963</v>
       </c>
       <c r="I400" t="n">
         <v>4</v>
@@ -29612,10 +28830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:31:50</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44259.52210648148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29683,10 +28899,8 @@
           <t>4217276444</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:31:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44259.52189814814</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29762,10 +28976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:31:19</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44259.52174768518</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29841,10 +29053,8 @@
           <t>4217280249</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:31:16</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44259.52171296296</v>
       </c>
       <c r="I404" t="n">
         <v>4</v>
@@ -29912,10 +29122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:31:01</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44259.52153935185</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29979,10 +29187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:30:35</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44259.52123842593</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -30046,10 +29252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:30:06</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44259.52090277777</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30122,10 +29326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:58</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44259.52081018518</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30193,10 +29395,8 @@
           <t>4217259549</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:52</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44259.52074074074</v>
       </c>
       <c r="I409" t="n">
         <v>14</v>
@@ -30264,10 +29464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:48</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44259.52069444444</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30336,10 +29534,8 @@
           <t>4217249493</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:46</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44259.5206712963</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30403,10 +29599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:10</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44259.52025462963</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30466,10 +29660,8 @@
           <t>4217237097</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:07</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44259.5202199074</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30541,10 +29733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:29:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44259.52015046297</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30604,10 +29794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:28:13</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44259.5195949074</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30679,10 +29867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:28:10</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44259.51956018519</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30750,10 +29936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:58</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44259.5194212963</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30821,10 +30005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:47</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44259.51929398148</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30888,10 +30070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:39</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44259.51920138889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30963,10 +30143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:30</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44259.51909722222</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31030,10 +30208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:19</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44259.51896990741</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31105,10 +30281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:14</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44259.51891203703</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31172,10 +30346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:09</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44259.51885416666</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31239,10 +30411,8 @@
           <t>4217249493</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:06</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44259.51881944444</v>
       </c>
       <c r="I424" t="n">
         <v>17</v>
@@ -31310,10 +30480,8 @@
           <t>4217249481</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:06</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44259.51881944444</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31377,10 +30545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44259.51881944444</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31452,10 +30618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:27:00</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44259.51875</v>
       </c>
       <c r="I427" t="n">
         <v>7</v>
@@ -31531,10 +30695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:26:55</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44259.51869212963</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31598,10 +30760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:26:38</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44259.51849537037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31669,10 +30829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:26:37</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44259.5184837963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31740,10 +30898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:26:34</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44259.51844907407</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31807,10 +30963,8 @@
           <t>4217244268</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:26:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44259.51834490741</v>
       </c>
       <c r="I432" t="n">
         <v>24</v>
@@ -31878,10 +31032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:19</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44259.51758101852</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31953,10 +31105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:18</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44259.51756944445</v>
       </c>
       <c r="I434" t="n">
         <v>117</v>
@@ -32020,10 +31170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:15</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44259.51753472222</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32095,10 +31243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:11</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44259.51748842592</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32162,10 +31308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:03</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44259.51739583333</v>
       </c>
       <c r="I437" t="n">
         <v>78</v>
@@ -32237,10 +31381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:25:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44259.51736111111</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32300,10 +31442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:24:56</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44259.51731481482</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32375,10 +31515,8 @@
           <t>4217241981</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:24:54</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44259.51729166666</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32446,10 +31584,8 @@
           <t>4217238877</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:24:11</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44259.51679398148</v>
       </c>
       <c r="I441" t="n">
         <v>12</v>
@@ -32525,10 +31661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:24:06</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44259.51673611111</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32600,10 +31734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:57</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44259.51663194445</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32680,10 +31812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:46</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44259.51650462963</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32751,10 +31881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:43</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44259.51646990741</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32822,10 +31950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:35</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44259.51637731482</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32901,10 +32027,8 @@
           <t>4217233385</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:14</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44259.51613425926</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32972,10 +32096,8 @@
           <t>4217237097</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:23:02</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44259.51599537037</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33043,10 +32165,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:52</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44259.51587962963</v>
       </c>
       <c r="I449" t="n">
         <v>7</v>
@@ -33122,10 +32242,8 @@
           <t>4217228740</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:45</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44259.51579861111</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33201,10 +32319,8 @@
           <t>4217228661</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:41</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44259.51575231482</v>
       </c>
       <c r="I451" t="n">
         <v>37</v>
@@ -33268,10 +32384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:34</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44259.5156712963</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33339,10 +32453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:11</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44259.51540509259</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33418,10 +32530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:22:04</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44259.51532407408</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33493,10 +32603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:21:59</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44259.51526620371</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33572,10 +32680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:21:53</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44259.51519675926</v>
       </c>
       <c r="I456" t="n">
         <v>8</v>
@@ -33651,10 +32757,8 @@
           <t>4217227103</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:21:39</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44259.51503472222</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33722,10 +32826,8 @@
           <t>4217200216</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:21:04</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44259.51462962963</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33785,10 +32887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:21:01</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44259.51459490741</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -33856,10 +32956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:20:59</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44259.51457175926</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33931,10 +33029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:20:51</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44259.51447916667</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34011,10 +33107,8 @@
           <t>4217225753</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:20:45</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44259.51440972222</v>
       </c>
       <c r="I462" t="n">
         <v>2</v>
@@ -34082,10 +33176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:20:24</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44259.51416666667</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34155,10 +33247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:51</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44259.51378472222</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34226,10 +33316,8 @@
           <t>4217163738</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:27</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44259.51350694444</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34305,10 +33393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:19</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44259.51341435185</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34376,10 +33462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:13</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44259.51334490741</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34455,10 +33539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:06</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44259.51326388889</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34526,10 +33608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:19:03</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44259.51322916667</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34601,10 +33681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:18:58</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44259.5131712963</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34664,10 +33742,8 @@
           <t>4217220301</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:18:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44259.51298611111</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34744,10 +33820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:18:09</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44259.51260416667</v>
       </c>
       <c r="I472" t="n">
         <v>891</v>
@@ -34816,10 +33890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:18:09</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44259.51260416667</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34883,10 +33955,8 @@
           <t>4217209294</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:18:05</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44259.51255787037</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -34962,10 +34032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44259.51248842593</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35025,10 +34093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:49</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44259.51237268518</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35104,10 +34170,8 @@
           <t>4217200216</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:25</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44259.5120949074</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35183,10 +34247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:19</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44259.51202546297</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35258,10 +34320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:12</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44259.51194444444</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35337,10 +34397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:17:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44259.51186342593</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35417,10 +34475,8 @@
           <t>4217179693</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:49</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44259.51167824074</v>
       </c>
       <c r="I481" t="n">
         <v>5</v>
@@ -35496,10 +34552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:40</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44259.51157407407</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35576,10 +34630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:38</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44259.51155092593</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35651,10 +34703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:33</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44259.51149305556</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35726,10 +34776,8 @@
           <t>4217206763</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:31</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44259.5114699074</v>
       </c>
       <c r="I485" t="n">
         <v>72</v>
@@ -35805,10 +34853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:24</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44259.51138888889</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35880,10 +34926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:19</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44259.51133101852</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35951,10 +34995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:14</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44259.51127314815</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36018,10 +35060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:12</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44259.51125</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36093,10 +35133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:08</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44259.5112037037</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36168,10 +35206,8 @@
           <t>4217202443</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:07</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44259.51119212963</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36231,10 +35267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:16:03</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44259.51114583333</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36298,10 +35332,8 @@
           <t>4217198546</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:15:54</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44259.51104166666</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36369,10 +35401,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:15:45</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44259.5109375</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36444,10 +35474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:15:36</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44259.51083333333</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36511,10 +35539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:15:18</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44259.510625</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36591,10 +35617,8 @@
           <t>4217194166</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:52</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44259.51032407407</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36662,10 +35686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:48</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44259.51027777778</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36741,10 +35763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:46</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44259.51025462963</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36820,10 +35840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:41</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44259.51019675926</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36895,10 +35913,8 @@
           <t>4217196719</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:41</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44259.51019675926</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36966,10 +35982,8 @@
           <t>4217200216</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:40</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44259.51018518519</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37033,10 +36047,8 @@
           <t>4217187364</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:37</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44259.51015046296</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37112,10 +36124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:34</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44259.51011574074</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37187,10 +36197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:32</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44259.51009259259</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37266,10 +36274,8 @@
           <t>4217189845</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:26</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44259.51002314815</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37337,10 +36343,8 @@
           <t>4217196328</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:25</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44259.51001157407</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37416,10 +36420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:20</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44259.5099537037</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37495,10 +36497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:17</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44259.50991898148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37574,10 +36574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:03</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44259.50975694445</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37653,10 +36651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:14:02</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44259.50974537037</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37732,10 +36728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:53</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44259.5096412037</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37803,10 +36797,8 @@
           <t>4217189002</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:52</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44259.50962962963</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37878,10 +36870,8 @@
           <t>4217195334</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:44</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44259.50953703704</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37953,10 +36943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:34</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44259.50942129629</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38032,10 +37020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:23</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44259.50929398148</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38111,10 +37097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:07</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44259.50910879629</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38190,10 +37174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:05</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44259.50908564815</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38257,10 +37239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:13:04</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44259.50907407407</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38324,10 +37304,8 @@
           <t>4217187364</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:12:45</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44259.50885416667</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38399,10 +37377,8 @@
           <t>4217187361</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:12:45</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44259.50885416667</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38470,10 +37446,8 @@
           <t>4217186158</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:55</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44259.50827546296</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38545,10 +37519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:54</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44259.50826388889</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38624,10 +37596,8 @@
           <t>4217179693</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:49</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44259.50820601852</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38695,10 +37665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:35</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44259.50804398148</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38774,10 +37742,8 @@
           <t>4217173907</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:28</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44259.50796296296</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38853,10 +37819,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44259.50790509259</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38932,10 +37896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:11:09</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44259.50774305555</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39011,10 +37973,8 @@
           <t>4217174544</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:49</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44259.50751157408</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39086,10 +38046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:43</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44259.50744212963</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39157,10 +38115,8 @@
           <t>4217177755</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:31</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44259.50730324074</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39232,10 +38188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:23</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44259.50721064815</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39303,10 +38257,8 @@
           <t>4217173907</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:22</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44259.50719907408</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39382,10 +38334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:15</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44259.50711805555</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39450,10 +38400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:06</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44259.50701388889</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39521,10 +38469,8 @@
           <t>4217180083</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:05</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44259.50700231481</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39600,10 +38546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:10:01</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44259.50695601852</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39671,10 +38615,8 @@
           <t>4217176905</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44259.5069212963</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39746,10 +38688,8 @@
           <t>4217169596</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:46</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44259.50678240741</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39825,10 +38765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:38</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44259.50668981481</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39892,10 +38830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:32</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44259.50662037037</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39967,10 +38903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:19</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44259.50646990741</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40038,10 +38972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:14</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44259.50641203704</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40113,10 +39045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:09:13</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44259.50640046296</v>
       </c>
       <c r="I544" t="n">
         <v>3</v>
@@ -40193,10 +39123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:53</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44259.50616898148</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40264,10 +39192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:35</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44259.50596064814</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40339,10 +39265,8 @@
           <t>4217163738</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:25</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44259.50584490741</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40410,10 +39334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:08</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44259.50564814815</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40481,10 +39403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:08</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44259.50564814815</v>
       </c>
       <c r="I549" t="n">
         <v>2</v>
@@ -40556,10 +39476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:04</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44259.50560185185</v>
       </c>
       <c r="I550" t="n">
         <v>10</v>
@@ -40631,10 +39549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:04</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44259.50560185185</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40706,10 +39622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:08:03</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44259.50559027777</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40785,10 +39699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:58</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44259.50553240741</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40852,10 +39764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:56</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44259.50550925926</v>
       </c>
       <c r="I554" t="n">
         <v>5</v>
@@ -40931,10 +39841,8 @@
           <t>4217170247</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:52</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44259.50546296296</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -41003,10 +39911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:51</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44259.50545138889</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41082,10 +39988,8 @@
           <t>4217163738</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:47</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44259.50540509259</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41158,10 +40062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:42</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44259.50534722222</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41225,10 +40127,8 @@
           <t>4217170001</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:41</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44259.50533564815</v>
       </c>
       <c r="I559" t="n">
         <v>11</v>
@@ -41300,10 +40200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:36</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44259.50527777777</v>
       </c>
       <c r="I560" t="n">
         <v>1086</v>
@@ -41375,10 +40273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:31</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44259.50521990741</v>
       </c>
       <c r="I561" t="n">
         <v>3</v>
@@ -41446,10 +40342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:07:20</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44259.50509259259</v>
       </c>
       <c r="I562" t="n">
         <v>248</v>
@@ -41513,10 +40407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:55</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44259.50480324074</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41592,10 +40484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:44</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44259.50467592593</v>
       </c>
       <c r="I564" t="n">
         <v>45</v>
@@ -41671,10 +40561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:42</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44259.50465277778</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41742,10 +40630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:37</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44259.5045949074</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41819,10 +40705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:33</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44259.50454861111</v>
       </c>
       <c r="I567" t="n">
         <v>154</v>
@@ -41898,10 +40782,8 @@
           <t>4217158226</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:28</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44259.50449074074</v>
       </c>
       <c r="I568" t="n">
         <v>29</v>
@@ -41969,10 +40851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:13</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44259.50431712963</v>
       </c>
       <c r="I569" t="n">
         <v>2</v>
@@ -42044,10 +40924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:12</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44259.50430555556</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42123,10 +41001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:12</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44259.50430555556</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42202,10 +41078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:09</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44259.50427083333</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42281,10 +41155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:07</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44259.50424768519</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42360,10 +41232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:06</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44259.50423611111</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42427,10 +41297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:05</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44259.50422453704</v>
       </c>
       <c r="I575" t="n">
         <v>24</v>
@@ -42506,10 +41374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:04</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44259.50421296297</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42585,10 +41451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:06:00</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44259.50416666667</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42652,10 +41516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:53</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44259.50408564815</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42715,10 +41577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:51</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44259.5040625</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -42790,10 +41650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:49</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44259.50403935185</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42861,10 +41719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:45</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44259.50399305556</v>
       </c>
       <c r="I581" t="n">
         <v>1</v>
@@ -42940,10 +41796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:43</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44259.5039699074</v>
       </c>
       <c r="I582" t="n">
         <v>26</v>
@@ -43019,10 +41873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:43</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44259.5039699074</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43086,10 +41938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:42</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44259.50395833333</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43153,10 +42003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:38</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44259.50391203703</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43220,10 +42068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:24</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44259.50375</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43291,10 +42137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:20</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44259.5037037037</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43362,10 +42206,8 @@
           <t>4217149990</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:12</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44259.50361111111</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43429,10 +42271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:05:05</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44259.5035300926</v>
       </c>
       <c r="I589" t="n">
         <v>2</v>
@@ -43496,10 +42336,8 @@
           <t>4217156172</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:59</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44259.50346064815</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43575,10 +42413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:57</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44259.5034375</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43654,10 +42490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:55</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44259.50341435185</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43717,10 +42551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:52</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44259.50337962963</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43788,10 +42620,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:46</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44259.50331018519</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43863,10 +42693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:39</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44259.50322916666</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43938,10 +42766,8 @@
           <t>4217152342</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:34</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44259.5031712963</v>
       </c>
       <c r="I596" t="n">
         <v>12</v>
@@ -44017,10 +42843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:30</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44259.503125</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44092,10 +42916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:17</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44259.50297453703</v>
       </c>
       <c r="I598" t="n">
         <v>21</v>
@@ -44171,10 +42993,8 @@
           <t>4217151908</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:14</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44259.50293981482</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44242,10 +43062,8 @@
           <t>4217144247</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:11</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44259.5029050926</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44313,10 +43131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:01</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44259.50278935185</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44388,10 +43204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:04:00</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44259.50277777778</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44467,10 +43281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:54</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44259.50270833333</v>
       </c>
       <c r="I603" t="n">
         <v>602</v>
@@ -44534,10 +43346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:49</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44259.50265046296</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44613,10 +43423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:48</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44259.50263888889</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -44676,10 +43484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:46</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44259.50261574074</v>
       </c>
       <c r="I606" t="n">
         <v>4</v>
@@ -44748,10 +43554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:40</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44259.50254629629</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44819,10 +43623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:37</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44259.50251157407</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -44894,10 +43696,8 @@
           <t>4217144247</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:35</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44259.50248842593</v>
       </c>
       <c r="I609" t="n">
         <v>6</v>
@@ -44965,10 +43765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:34</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44259.50247685185</v>
       </c>
       <c r="I610" t="n">
         <v>8</v>
@@ -45041,10 +43839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:31</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44259.50244212963</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45116,10 +43912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:27</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44259.50239583333</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45187,10 +43981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:24</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44259.50236111111</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45262,10 +44054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:23</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44259.50234953704</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45333,10 +44123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:19</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44259.50230324074</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45408,10 +44196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:17</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44259.50228009259</v>
       </c>
       <c r="I616" t="n">
         <v>13</v>
@@ -45487,10 +44273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:08</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44259.50217592593</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45558,10 +44342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:08</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44259.50217592593</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45625,10 +44407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:07</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44259.50216435185</v>
       </c>
       <c r="I619" t="n">
         <v>230</v>
@@ -45700,10 +44480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:03:01</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44259.50209490741</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45764,10 +44542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:59</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44259.50207175926</v>
       </c>
       <c r="I621" t="n">
         <v>9</v>
@@ -45835,10 +44611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:56</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44259.50203703704</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45914,10 +44688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:53</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44259.50200231482</v>
       </c>
       <c r="I623" t="n">
         <v>5</v>
@@ -45989,10 +44761,8 @@
           <t>4217150014</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:52</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44259.50199074074</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -46068,10 +44838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:50</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44259.50196759259</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46143,10 +44911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:50</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44259.50196759259</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46222,10 +44988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:45</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44259.50190972222</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46297,10 +45061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:40</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44259.50185185186</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46364,10 +45126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:37</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44259.50181712963</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46435,10 +45195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:32</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44259.50175925926</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46498,10 +45256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:32</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44259.50175925926</v>
       </c>
       <c r="I631" t="n">
         <v>2</v>
@@ -46573,10 +45329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:28</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44259.50171296296</v>
       </c>
       <c r="I632" t="n">
         <v>611</v>
@@ -46644,10 +45398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:26</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44259.50168981482</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46715,10 +45467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:24</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44259.50166666666</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46786,10 +45536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:23</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44259.50165509259</v>
       </c>
       <c r="I635" t="n">
         <v>1</v>
@@ -46861,10 +45609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:23</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44259.50165509259</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46928,10 +45674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:21</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44259.50163194445</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -46999,10 +45743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:16</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44259.50157407407</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47070,10 +45812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-03-04 12:02:12</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44259.50152777778</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
